--- a/biology/Botanique/Tricalysia_oligoneura/Tricalysia_oligoneura.xlsx
+++ b/biology/Botanique/Tricalysia_oligoneura/Tricalysia_oligoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricalysia oligoneura K.Schum. est une espèce de plantes tropicales de la famille des Rubiacées et du genre Tricalysia, présente au Nigeria, au Cameroun, en République centrafricaine et en République démocratique du Congo[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricalysia oligoneura K.Schum. est une espèce de plantes tropicales de la famille des Rubiacées et du genre Tricalysia, présente au Nigeria, au Cameroun, en République centrafricaine et en République démocratique du Congo.
 </t>
         </is>
       </c>
